--- a/Projeto/charles/results_final.xlsx
+++ b/Projeto/charles/results_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Test</t>
   </si>
@@ -28,40 +28,103 @@
     <t>Best_Fitness</t>
   </si>
   <si>
-    <t>fps</t>
-  </si>
-  <si>
-    <t>arithmetic_co</t>
-  </si>
-  <si>
-    <t>inversion_mutation</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>[1.6304, 1.3619, 1.0950000000000002]</t>
-  </si>
-  <si>
-    <t>[1.5338999999999996, 2.0433999999999997, 1.5338999999999996]</t>
-  </si>
-  <si>
-    <t>[2.0591, 2.9417000000000004, 2.9417000000000004]</t>
-  </si>
-  <si>
-    <t>[1.4132000000000002, 3.249165034592198, 3.249165034592198]</t>
-  </si>
-  <si>
-    <t>{1.0950000000000002}</t>
-  </si>
-  <si>
-    <t>{1.5338999999999996}</t>
-  </si>
-  <si>
-    <t>{2.0591}</t>
-  </si>
-  <si>
-    <t>{1.4132000000000002}</t>
+    <t>Best_Diet</t>
+  </si>
+  <si>
+    <t>('fps', 'single_point_co', 'swap_mutation', True, True)</t>
+  </si>
+  <si>
+    <t>('fps', 'single_point_co', 'inversion_mutation', True, True)</t>
+  </si>
+  <si>
+    <t>('fps', 'multi_point_co', 'swap_mutation', True, True)</t>
+  </si>
+  <si>
+    <t>('fps', 'multi_point_co', 'inversion_mutation', True, True)</t>
+  </si>
+  <si>
+    <t>('tournament', 'single_point_co', 'swap_mutation', True, True)</t>
+  </si>
+  <si>
+    <t>('tournament', 'single_point_co', 'inversion_mutation', True, True)</t>
+  </si>
+  <si>
+    <t>('tournament', 'multi_point_co', 'swap_mutation', True, True)</t>
+  </si>
+  <si>
+    <t>('tournament', 'multi_point_co', 'inversion_mutation', True, True)</t>
+  </si>
+  <si>
+    <t>[1.2438, 1.1867, 1.1482, 1.0945, 1.0834000000000001]</t>
+  </si>
+  <si>
+    <t>[1.723, 1.4227, 1.3972, 1.3972, 1.3972]</t>
+  </si>
+  <si>
+    <t>[1.2339999999999998, 0.8765, 0.8765, 0.8765, 0.8765]</t>
+  </si>
+  <si>
+    <t>[1.1502000000000001, 0.979, 0.8431, 0.8431, 0.8306]</t>
+  </si>
+  <si>
+    <t>[1.2387, 1.1233, 0.9837000000000001, 0.7557000000000001, 0.7557000000000001]</t>
+  </si>
+  <si>
+    <t>[1.3306999999999998, 1.3706999999999998, 1.2765999999999997, 1.2654999999999998, 1.1216]</t>
+  </si>
+  <si>
+    <t>[1.5186000000000002, 1.5186000000000002, 1.5186000000000002, 1.4784000000000002, 1.4784000000000002]</t>
+  </si>
+  <si>
+    <t>[1.2853, 1.2853, 1.2853, 1.2853, 1.2853]</t>
+  </si>
+  <si>
+    <t>{1.0834000000000001}</t>
+  </si>
+  <si>
+    <t>{1.3972}</t>
+  </si>
+  <si>
+    <t>{0.8765}</t>
+  </si>
+  <si>
+    <t>{0.8306}</t>
+  </si>
+  <si>
+    <t>{0.7557000000000001}</t>
+  </si>
+  <si>
+    <t>{1.1216}</t>
+  </si>
+  <si>
+    <t>{1.4784000000000002}</t>
+  </si>
+  <si>
+    <t>{1.2853}</t>
+  </si>
+  <si>
+    <t>{'White Bread (Enriched)': '0.4 lb.', 'Rye Bread': '0.9 lb.', 'Sirloin Steak': '0.3 lb.', 'Chuck Roast': '0.6 lb.', 'Lamb Chops (Rib)': '0.1 lb.', 'Roasting Chicken': '0.6 lb.', 'Lettuce': '0.9 head', 'Sweet Potatoes': '1.0 lb.', 'Pears (can)': '1.75 nan', 'Pork and Beans (can)': '12.8 oz.', 'Raisins, Dried': '6.0 oz.', 'Navy Beans, Dried': '0.9 lb.', 'Strawberry Preserves': '0.4 lb.'}</t>
+  </si>
+  <si>
+    <t>{'Wheat Cereal (Enriched)': '16.8 oz.', 'Corn Flakes': '4.8 oz.', 'Whole Wheat Bread': '0.7 lb.', 'Rye Bread': '1.0 lb.', 'Cheese (Cheddar)': '0.5 lb.', 'Lard': '0.4 lb.', 'Bacon': '0.2 lb.', 'Roasting Chicken': '0.9 lb.', 'Oranges': '0.3 doz.', 'Green Beans': '0.8 lb.', 'Carrots': '1.0 bunch', 'Sweet Potatoes': '0.6 lb.', 'Peas (can)': '1.0 nan', 'Peaches, Dried': '0.2 lb.', 'Sugar': '1.0 lb.', 'Corn Syrup': '14.399999999999999 oz.', 'Molasses': '3.6 oz.', 'Strawberry Preserves': '0.4 lb.'}</t>
+  </si>
+  <si>
+    <t>{'Sirloin Steak': '0.7 lb.', 'Salt Pork': '0.3 lb.', 'Veal Cutlets': '0.2 lb.', 'Bananas': '0.2 lb.', 'Sweet Potatoes': '0.6 lb.', 'Peaches (can)': '0.25 nan', 'Green Beans (can)': '1.4 nan', 'Tomato Soup (can)': '10.5 oz.', 'Prunes, Dried': '0.8 lb.', 'Navy Beans, Dried': '0.7 lb.', 'Cocoa': '3.2 oz.', 'Chocolate': '5.6 oz.'}</t>
+  </si>
+  <si>
+    <t>{'Corn Meal': '0.6 lb.', 'Rye Bread': '0.1 lb.', 'Mayonnaise': '0.2 pt.', 'Chuck Roast': '0.2 lb.', 'Plate': '0.3 lb.', 'Pork Chops': '0.3 lb.', 'Bananas': '0.8 lb.', 'Carrots': '0.4 bunch', 'Celery': '0.4 stalk', 'Sweet Potatoes': '0.6 lb.', 'Asparagus (can)': '0.6 nan', 'Green Beans (can)': '0.8 nan', 'Prunes, Dried': '0.8 lb.', 'Raisins, Dried': '9.0 oz.', 'Lima Beans, Dried': '0.8 lb.', 'Corn Syrup': '16.799999999999997 oz.'}</t>
+  </si>
+  <si>
+    <t>{'Macaroni': '0.7 lb.', 'Whole Wheat Bread': '0.6 lb.', 'Rye Bread': '0.2 lb.', 'Soda Crackers': '0.3 lb.', 'Oleomargarine': '0.4 lb.', 'Rib Roast': '0.3 lb.', 'Ham, smoked': '0.2 lb.', 'Bananas': '0.9 lb.', 'Spinach': '0.2 lb.', 'Pears (can)': '0.5 nan', 'Tomatoes (can)': '0.6 nan', 'Peas, Dried': '0.5 lb.', 'Lima Beans, Dried': '0.5 lb.', 'Navy Beans, Dried': '0.1 lb.', 'Cocoa': '0.8 oz.', 'Corn Syrup': '16.799999999999997 oz.'}</t>
+  </si>
+  <si>
+    <t>{'Wheat Flour (Enriched)': '1.0 lb.', 'Macaroni': '1.0 lb.', 'Rolled Oats': '0.8 lb.', 'Chuck Roast': '0.3 lb.', 'Roasting Chicken': '0.1 lb.', 'Veal Cutlets': '0.6 lb.', 'Lemons': '0.5 doz.', 'Oranges': '0.1 doz.', 'Celery': '0.1 stalk', 'Sweet Potatoes': '0.8 lb.', 'Peaches (can)': '0.5 nan', 'Pork and Beans (can)': '11.2 oz.', 'Peas, Dried': '0.2 lb.', 'Lima Beans, Dried': '0.6 lb.', 'Cocoa': '6.4 oz.', 'Chocolate': '3.2 oz.', 'Molasses': '5.3999999999999995 oz.'}</t>
+  </si>
+  <si>
+    <t>{'Rice': '0.3 lb.', 'Rolled Oats': '0.3 lb.', 'Rye Bread': '0.3 lb.', 'Evaporated Milk (can)': '13.05 oz.', 'Oleomargarine': '0.7 lb.', 'Mayonnaise': '0.1 pt.', 'Rib Roast': '0.9 lb.', 'Plate': '0.8 lb.', 'Pork Chops': '0.5 lb.', 'Apples': '0.8 lb.', 'Bananas': '0.4 lb.', 'Oranges': '0.2 doz.', 'Spinach': '0.8 lb.', 'Asparagus (can)': '1.2 nan', 'Pork and Beans (can)': '8.0 oz.', 'Corn (can)': '1.8 nan', 'Peas (can)': '0.4 nan', 'Tomato Soup (can)': '5.25 oz.', 'Raisins, Dried': '1.5 oz.', 'Peas, Dried': '0.1 lb.', 'Sugar': '2.0 lb.'}</t>
+  </si>
+  <si>
+    <t>{'Rolled Oats': '0.7 lb.', 'Rye Bread': '0.4 lb.', 'Milk': '0.6 qt.', 'Peanut Butter': '0.8 lb.', 'Rib Roast': '0.3 lb.', 'Pork Chops': '1.0 lb.', 'Bacon': '0.2 lb.', 'Salmon, Pink (can)': '9.6 oz.', 'Apples': '0.8 lb.', 'Cabbage': '0.7 lb.', 'Lettuce': '0.2 head', 'Asparagus (can)': '1.2 nan', 'Tomato Soup (can)': '8.4 oz.', 'Navy Beans, Dried': '0.1 lb.', 'Cocoa': '5.6 oz.', 'Molasses': '1.8 oz.', 'Strawberry Preserves': '0.4 lb.'}</t>
   </si>
 </sst>
 </file>
@@ -419,13 +482,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -438,61 +501,144 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/Projeto/charles/results_final.xlsx
+++ b/Projeto/charles/results_final.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Test</t>
   </si>
@@ -31,100 +31,22 @@
     <t>Best_Diet</t>
   </si>
   <si>
-    <t>('fps', 'single_point_co', 'swap_mutation', True, True)</t>
-  </si>
-  <si>
-    <t>('fps', 'single_point_co', 'inversion_mutation', True, True)</t>
-  </si>
-  <si>
-    <t>('fps', 'multi_point_co', 'swap_mutation', True, True)</t>
-  </si>
-  <si>
-    <t>('fps', 'multi_point_co', 'inversion_mutation', True, True)</t>
-  </si>
-  <si>
-    <t>('tournament', 'single_point_co', 'swap_mutation', True, True)</t>
-  </si>
-  <si>
-    <t>('tournament', 'single_point_co', 'inversion_mutation', True, True)</t>
-  </si>
-  <si>
-    <t>('tournament', 'multi_point_co', 'swap_mutation', True, True)</t>
-  </si>
-  <si>
-    <t>('tournament', 'multi_point_co', 'inversion_mutation', True, True)</t>
-  </si>
-  <si>
-    <t>[1.2438, 1.1867, 1.1482, 1.0945, 1.0834000000000001]</t>
-  </si>
-  <si>
-    <t>[1.723, 1.4227, 1.3972, 1.3972, 1.3972]</t>
-  </si>
-  <si>
-    <t>[1.2339999999999998, 0.8765, 0.8765, 0.8765, 0.8765]</t>
-  </si>
-  <si>
-    <t>[1.1502000000000001, 0.979, 0.8431, 0.8431, 0.8306]</t>
-  </si>
-  <si>
-    <t>[1.2387, 1.1233, 0.9837000000000001, 0.7557000000000001, 0.7557000000000001]</t>
-  </si>
-  <si>
-    <t>[1.3306999999999998, 1.3706999999999998, 1.2765999999999997, 1.2654999999999998, 1.1216]</t>
-  </si>
-  <si>
-    <t>[1.5186000000000002, 1.5186000000000002, 1.5186000000000002, 1.4784000000000002, 1.4784000000000002]</t>
-  </si>
-  <si>
-    <t>[1.2853, 1.2853, 1.2853, 1.2853, 1.2853]</t>
-  </si>
-  <si>
-    <t>{1.0834000000000001}</t>
-  </si>
-  <si>
-    <t>{1.3972}</t>
-  </si>
-  <si>
-    <t>{0.8765}</t>
-  </si>
-  <si>
-    <t>{0.8306}</t>
-  </si>
-  <si>
-    <t>{0.7557000000000001}</t>
-  </si>
-  <si>
-    <t>{1.1216}</t>
-  </si>
-  <si>
-    <t>{1.4784000000000002}</t>
-  </si>
-  <si>
-    <t>{1.2853}</t>
-  </si>
-  <si>
-    <t>{'White Bread (Enriched)': '0.4 lb.', 'Rye Bread': '0.9 lb.', 'Sirloin Steak': '0.3 lb.', 'Chuck Roast': '0.6 lb.', 'Lamb Chops (Rib)': '0.1 lb.', 'Roasting Chicken': '0.6 lb.', 'Lettuce': '0.9 head', 'Sweet Potatoes': '1.0 lb.', 'Pears (can)': '1.75 nan', 'Pork and Beans (can)': '12.8 oz.', 'Raisins, Dried': '6.0 oz.', 'Navy Beans, Dried': '0.9 lb.', 'Strawberry Preserves': '0.4 lb.'}</t>
-  </si>
-  <si>
-    <t>{'Wheat Cereal (Enriched)': '16.8 oz.', 'Corn Flakes': '4.8 oz.', 'Whole Wheat Bread': '0.7 lb.', 'Rye Bread': '1.0 lb.', 'Cheese (Cheddar)': '0.5 lb.', 'Lard': '0.4 lb.', 'Bacon': '0.2 lb.', 'Roasting Chicken': '0.9 lb.', 'Oranges': '0.3 doz.', 'Green Beans': '0.8 lb.', 'Carrots': '1.0 bunch', 'Sweet Potatoes': '0.6 lb.', 'Peas (can)': '1.0 nan', 'Peaches, Dried': '0.2 lb.', 'Sugar': '1.0 lb.', 'Corn Syrup': '14.399999999999999 oz.', 'Molasses': '3.6 oz.', 'Strawberry Preserves': '0.4 lb.'}</t>
-  </si>
-  <si>
-    <t>{'Sirloin Steak': '0.7 lb.', 'Salt Pork': '0.3 lb.', 'Veal Cutlets': '0.2 lb.', 'Bananas': '0.2 lb.', 'Sweet Potatoes': '0.6 lb.', 'Peaches (can)': '0.25 nan', 'Green Beans (can)': '1.4 nan', 'Tomato Soup (can)': '10.5 oz.', 'Prunes, Dried': '0.8 lb.', 'Navy Beans, Dried': '0.7 lb.', 'Cocoa': '3.2 oz.', 'Chocolate': '5.6 oz.'}</t>
-  </si>
-  <si>
-    <t>{'Corn Meal': '0.6 lb.', 'Rye Bread': '0.1 lb.', 'Mayonnaise': '0.2 pt.', 'Chuck Roast': '0.2 lb.', 'Plate': '0.3 lb.', 'Pork Chops': '0.3 lb.', 'Bananas': '0.8 lb.', 'Carrots': '0.4 bunch', 'Celery': '0.4 stalk', 'Sweet Potatoes': '0.6 lb.', 'Asparagus (can)': '0.6 nan', 'Green Beans (can)': '0.8 nan', 'Prunes, Dried': '0.8 lb.', 'Raisins, Dried': '9.0 oz.', 'Lima Beans, Dried': '0.8 lb.', 'Corn Syrup': '16.799999999999997 oz.'}</t>
-  </si>
-  <si>
-    <t>{'Macaroni': '0.7 lb.', 'Whole Wheat Bread': '0.6 lb.', 'Rye Bread': '0.2 lb.', 'Soda Crackers': '0.3 lb.', 'Oleomargarine': '0.4 lb.', 'Rib Roast': '0.3 lb.', 'Ham, smoked': '0.2 lb.', 'Bananas': '0.9 lb.', 'Spinach': '0.2 lb.', 'Pears (can)': '0.5 nan', 'Tomatoes (can)': '0.6 nan', 'Peas, Dried': '0.5 lb.', 'Lima Beans, Dried': '0.5 lb.', 'Navy Beans, Dried': '0.1 lb.', 'Cocoa': '0.8 oz.', 'Corn Syrup': '16.799999999999997 oz.'}</t>
-  </si>
-  <si>
-    <t>{'Wheat Flour (Enriched)': '1.0 lb.', 'Macaroni': '1.0 lb.', 'Rolled Oats': '0.8 lb.', 'Chuck Roast': '0.3 lb.', 'Roasting Chicken': '0.1 lb.', 'Veal Cutlets': '0.6 lb.', 'Lemons': '0.5 doz.', 'Oranges': '0.1 doz.', 'Celery': '0.1 stalk', 'Sweet Potatoes': '0.8 lb.', 'Peaches (can)': '0.5 nan', 'Pork and Beans (can)': '11.2 oz.', 'Peas, Dried': '0.2 lb.', 'Lima Beans, Dried': '0.6 lb.', 'Cocoa': '6.4 oz.', 'Chocolate': '3.2 oz.', 'Molasses': '5.3999999999999995 oz.'}</t>
-  </si>
-  <si>
-    <t>{'Rice': '0.3 lb.', 'Rolled Oats': '0.3 lb.', 'Rye Bread': '0.3 lb.', 'Evaporated Milk (can)': '13.05 oz.', 'Oleomargarine': '0.7 lb.', 'Mayonnaise': '0.1 pt.', 'Rib Roast': '0.9 lb.', 'Plate': '0.8 lb.', 'Pork Chops': '0.5 lb.', 'Apples': '0.8 lb.', 'Bananas': '0.4 lb.', 'Oranges': '0.2 doz.', 'Spinach': '0.8 lb.', 'Asparagus (can)': '1.2 nan', 'Pork and Beans (can)': '8.0 oz.', 'Corn (can)': '1.8 nan', 'Peas (can)': '0.4 nan', 'Tomato Soup (can)': '5.25 oz.', 'Raisins, Dried': '1.5 oz.', 'Peas, Dried': '0.1 lb.', 'Sugar': '2.0 lb.'}</t>
-  </si>
-  <si>
-    <t>{'Rolled Oats': '0.7 lb.', 'Rye Bread': '0.4 lb.', 'Milk': '0.6 qt.', 'Peanut Butter': '0.8 lb.', 'Rib Roast': '0.3 lb.', 'Pork Chops': '1.0 lb.', 'Bacon': '0.2 lb.', 'Salmon, Pink (can)': '9.6 oz.', 'Apples': '0.8 lb.', 'Cabbage': '0.7 lb.', 'Lettuce': '0.2 head', 'Asparagus (can)': '1.2 nan', 'Tomato Soup (can)': '8.4 oz.', 'Navy Beans, Dried': '0.1 lb.', 'Cocoa': '5.6 oz.', 'Molasses': '1.8 oz.', 'Strawberry Preserves': '0.4 lb.'}</t>
+    <t>Macros</t>
+  </si>
+  <si>
+    <t>('fps', 'single_point_co', 'swap_mutation', False, False)</t>
+  </si>
+  <si>
+    <t>[1.1419000000000001, 1.0528000000000002, 0.9865, 0.9505, 0.9434]</t>
+  </si>
+  <si>
+    <t>{0.9434}</t>
+  </si>
+  <si>
+    <t>{'Wheat Flour (Enriched)': '4.0 lb.', 'Corn Flakes': '4.8 oz.', 'Rolled Oats': '0.9 lb.', 'Cheese (Cheddar)': '0.6 lb.', 'Lard': '0.9 lb.', 'Liver (Beef)': '0.2 lb.', 'Salt Pork': '0.2 lb.', 'Oranges': '0.5 doz.', 'Lettuce': '0.8 head', 'Asparagus (can)': '0.4 nan', 'Corn (can)': '0.4 nan', 'Peas (can)': '0.8 nan', 'Coffee': '0.1 lb.'}</t>
+  </si>
+  <si>
+    <t>{'Calories': 14.63447, 'Protein': 380.1383, 'Calcium': 3.3093600000000003, 'Iron': 95.48250000000002, 'Vitamin A': 25.334370000000003, 'Vitamin B1': 12.572590000000005, 'Vitamin B2': 10.630660000000002, 'Niacin': 95.69420000000001, 'Vitamin C': 406.3126}</t>
   </si>
 </sst>
 </file>
@@ -482,13 +404,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,141 +426,28 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
+      <c r="F2" t="s">
         <v>10</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
